--- a/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
@@ -1152,10 +1152,18 @@
       <c r="H19" t="n">
         <v>8.079291358249424</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.4653776749851735</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1410938406075437</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.06113010082899263</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.288428103570097</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.48821129442052</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.213557390838831</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2800502618304645</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.291346792213953</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.49331058952106</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>396.4879047524765</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.003370232952257873</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.381881807301952</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01308274625048825</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.940217643963906</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
@@ -552,19 +552,19 @@
         <v>0.1397260273972603</v>
       </c>
       <c r="D3" t="n">
-        <v>116496.1390393257</v>
+        <v>116517.3611390926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02121002330184619</v>
+        <v>0.0225526219031326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703480780856492</v>
+        <v>0.1619315680856225</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.671991206267009</v>
+        <v>-0.9980679205896916</v>
       </c>
       <c r="H3" t="n">
-        <v>20.80407513423269</v>
+        <v>10.27151143191923</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3123287671232877</v>
       </c>
       <c r="D5" t="n">
-        <v>117964.2038201148</v>
+        <v>118190.1850686447</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004675452490707522</v>
+        <v>0.004616184557523723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.245621184516792</v>
+        <v>0.2045734683473742</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.037867694897241</v>
+        <v>-0.7471488745757884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.27191997446651</v>
+        <v>8.140619230617689</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.389041095890411</v>
       </c>
       <c r="D6" t="n">
-        <v>118589.8342664852</v>
+        <v>118589.4665493969</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01032865744905339</v>
+        <v>-0.01073324829956123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.24269843372997</v>
+        <v>0.2461963849384141</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.219663434961601</v>
+        <v>-1.362396611284616</v>
       </c>
       <c r="H6" t="n">
-        <v>9.917503992644788</v>
+        <v>11.44906056822656</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.810958904109589</v>
       </c>
       <c r="D8" t="n">
-        <v>120375.9643269186</v>
+        <v>120272.6170416691</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02929796974533339</v>
+        <v>-0.03189599974531242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2049412981950689</v>
+        <v>0.2120320862083005</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7765225660979732</v>
+        <v>-0.9301164525105129</v>
       </c>
       <c r="H8" t="n">
-        <v>6.061004492601286</v>
+        <v>6.919902804251932</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8876712328767123</v>
       </c>
       <c r="D9" t="n">
-        <v>122295.9634964449</v>
+        <v>121836.19929144</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05004708922476064</v>
+        <v>-0.06405189092210928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3027793871366914</v>
+        <v>0.3525291549876354</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.615345681183828</v>
+        <v>-2.114120310140174</v>
       </c>
       <c r="H9" t="n">
-        <v>11.21011538502123</v>
+        <v>13.76292796154375</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.136986301369863</v>
       </c>
       <c r="D10" t="n">
-        <v>123319.4132596473</v>
+        <v>123313.7596198474</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1035628188782077</v>
+        <v>-0.1051361967047122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.434161257419028</v>
+        <v>0.4453149052701786</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.797390174279957</v>
+        <v>-1.929441587427766</v>
       </c>
       <c r="H10" t="n">
-        <v>8.711029734485212</v>
+        <v>9.80963810794877</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>115804.4936433915</v>
+        <v>115820.8310141887</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09472943558243886</v>
+        <v>0.09635463804703032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1222580782828886</v>
+        <v>0.1123356836587552</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.752450404093876</v>
+        <v>-0.7277257001707244</v>
       </c>
       <c r="H13" t="n">
-        <v>19.88666384400611</v>
+        <v>6.555853308919397</v>
       </c>
       <c r="I13" t="n">
         <v>0.6094881727025049</v>
@@ -1062,19 +1062,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D17" t="n">
-        <v>115822.5442404125</v>
+        <v>115823.0423619805</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1765459989354679</v>
+        <v>0.1766734332596782</v>
       </c>
       <c r="F17" t="n">
-        <v>0.101568088161558</v>
+        <v>0.09935124558109336</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9867413836174508</v>
+        <v>-0.5818044104059169</v>
       </c>
       <c r="H17" t="n">
-        <v>12.85229483298773</v>
+        <v>6.353284726074335</v>
       </c>
       <c r="I17" t="n">
         <v>0.3804129190982263</v>
@@ -1188,19 +1188,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D20" t="n">
-        <v>116428.9567932704</v>
+        <v>116694.7614515533</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02010405369381166</v>
+        <v>0.05247086805839964</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6106886503996304</v>
+        <v>0.134702381573318</v>
       </c>
       <c r="G20" t="n">
-        <v>-16.51511885348646</v>
+        <v>-0.5226675737249257</v>
       </c>
       <c r="H20" t="n">
-        <v>396.4879047524765</v>
+        <v>6.782765781999012</v>
       </c>
       <c r="I20" t="n">
         <v>-0.003370232952257873</v>

--- a/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.27151143191923</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.02614138770798355</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2777807898981177</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02421660786898908</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.397112995895175</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDQMOMENT_20250806.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.19126585584797</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.04229948730612585</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4890179029360937</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.40771897256185</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.653083192022226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
